--- a/experiment_results/SBFL_ONLY/Email/2Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Email/2Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -15725,10 +15725,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D2">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E2">
         <v>247</v>
@@ -15739,10 +15739,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>11.33603238866397</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E3">
         <v>247</v>
@@ -15756,10 +15756,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>12.95546558704453</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="E4">
         <v>247</v>
@@ -15770,10 +15770,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>0.8097165991902834</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E5">
         <v>247</v>
@@ -15787,10 +15787,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="D6">
-        <v>2.834008097165992</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E6">
         <v>247</v>
@@ -15801,10 +15801,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>12.14574898785425</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="E7">
         <v>247</v>
@@ -15818,10 +15818,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>5.263157894736842</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E8">
         <v>247</v>
@@ -15832,10 +15832,10 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>20.24291497975709</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E9">
         <v>247</v>
@@ -15849,10 +15849,10 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="D10">
-        <v>3.643724696356275</v>
+        <v>91.90283400809717</v>
       </c>
       <c r="E10">
         <v>247</v>
@@ -15863,10 +15863,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>43.31983805668016</v>
+        <v>44.53441295546558</v>
       </c>
       <c r="E11">
         <v>247</v>
@@ -15880,10 +15880,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="D12">
-        <v>3.643724696356275</v>
+        <v>90.2834008097166</v>
       </c>
       <c r="E12">
         <v>247</v>
@@ -15894,10 +15894,10 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>17.00404858299595</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E13">
         <v>247</v>
@@ -15911,10 +15911,10 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E14">
         <v>247</v>
@@ -15925,10 +15925,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>65.9919028340081</v>
+        <v>30.36437246963563</v>
       </c>
       <c r="E15">
         <v>247</v>
@@ -15942,10 +15942,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>1.619433198380567</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E16">
         <v>247</v>
@@ -15956,10 +15956,10 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>2.42914979757085</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E17">
         <v>247</v>
@@ -15973,10 +15973,10 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1.214574898785425</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E18">
         <v>247</v>
@@ -15987,10 +15987,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>57.89473684210527</v>
+        <v>37.24696356275304</v>
       </c>
       <c r="E19">
         <v>247</v>
@@ -16004,10 +16004,10 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>1.619433198380567</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E20">
         <v>247</v>
@@ -16018,10 +16018,10 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D21">
-        <v>26.31578947368421</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="E21">
         <v>247</v>
@@ -16035,10 +16035,10 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>7.692307692307693</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E22">
         <v>247</v>
@@ -16049,10 +16049,10 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="D23">
-        <v>11.33603238866397</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E23">
         <v>247</v>
@@ -16066,10 +16066,10 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>44.93927125506073</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E24">
         <v>247</v>
@@ -16080,10 +16080,10 @@
         <v>18</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>8.502024291497975</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E25">
         <v>247</v>
@@ -16097,10 +16097,10 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>52.63157894736842</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="E26">
         <v>247</v>
@@ -16111,10 +16111,10 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E27">
         <v>247</v>
@@ -16128,10 +16128,10 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D28">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E28">
         <v>247</v>
@@ -16142,10 +16142,10 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>7.692307692307693</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E29">
         <v>247</v>
@@ -16159,10 +16159,10 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>24.69635627530364</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E30">
         <v>247</v>
@@ -16173,10 +16173,10 @@
         <v>18</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E31">
         <v>247</v>
@@ -16190,10 +16190,10 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D32">
-        <v>14.17004048582996</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E32">
         <v>247</v>
@@ -16204,10 +16204,10 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>8.502024291497975</v>
+        <v>16.19433198380567</v>
       </c>
       <c r="E33">
         <v>247</v>
@@ -16221,10 +16221,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="D34">
-        <v>15.38461538461539</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E34">
         <v>247</v>
@@ -16235,10 +16235,10 @@
         <v>18</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>5.668016194331984</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E35">
         <v>247</v>
@@ -16252,10 +16252,10 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>0.8097165991902834</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E36">
         <v>247</v>
@@ -16266,10 +16266,10 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D37">
-        <v>55.06072874493927</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="E37">
         <v>247</v>
@@ -16283,10 +16283,10 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D38">
-        <v>15.78947368421053</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E38">
         <v>247</v>
@@ -16297,10 +16297,10 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>0.8097165991902834</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E39">
         <v>247</v>
@@ -16314,10 +16314,10 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>5.263157894736842</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E40">
         <v>247</v>
@@ -16328,10 +16328,10 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>25.10121457489878</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E41">
         <v>247</v>
@@ -16345,10 +16345,10 @@
         <v>16</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D42">
-        <v>18.21862348178137</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E42">
         <v>247</v>
@@ -16359,10 +16359,10 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>1.619433198380567</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E43">
         <v>247</v>
@@ -16376,10 +16376,10 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E44">
         <v>247</v>
@@ -16390,10 +16390,10 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>37.24696356275304</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E45">
         <v>247</v>
@@ -16407,10 +16407,10 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D46">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E46">
         <v>247</v>
@@ -16421,10 +16421,10 @@
         <v>22</v>
       </c>
       <c r="C47">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>12.95546558704453</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E47">
         <v>247</v>
@@ -16438,10 +16438,10 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D48">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E48">
         <v>247</v>
@@ -16452,10 +16452,10 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D49">
-        <v>14.97975708502024</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E49">
         <v>247</v>
@@ -16469,10 +16469,10 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>0.8097165991902834</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E50">
         <v>247</v>
@@ -16483,10 +16483,10 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D51">
-        <v>15.38461538461539</v>
+        <v>18.62348178137652</v>
       </c>
       <c r="E51">
         <v>247</v>
@@ -16500,10 +16500,10 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D52">
-        <v>14.5748987854251</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E52">
         <v>247</v>
@@ -16514,10 +16514,10 @@
         <v>22</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D53">
-        <v>1.619433198380567</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E53">
         <v>247</v>
@@ -16531,10 +16531,10 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="D54">
-        <v>3.643724696356275</v>
+        <v>91.90283400809717</v>
       </c>
       <c r="E54">
         <v>247</v>
@@ -16545,10 +16545,10 @@
         <v>9</v>
       </c>
       <c r="C55">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>80.97165991902834</v>
+        <v>21.45748987854251</v>
       </c>
       <c r="E55">
         <v>247</v>
@@ -16562,10 +16562,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D56">
-        <v>8.906882591093117</v>
+        <v>16.59919028340081</v>
       </c>
       <c r="E56">
         <v>247</v>
@@ -16576,10 +16576,10 @@
         <v>22</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D57">
-        <v>0.8097165991902834</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E57">
         <v>247</v>
@@ -16593,10 +16593,10 @@
         <v>13</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>1.619433198380567</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E58">
         <v>247</v>
@@ -16607,10 +16607,10 @@
         <v>22</v>
       </c>
       <c r="C59">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D59">
-        <v>12.55060728744939</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E59">
         <v>247</v>
@@ -16624,10 +16624,10 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="D60">
-        <v>3.643724696356275</v>
+        <v>91.90283400809717</v>
       </c>
       <c r="E60">
         <v>247</v>
@@ -16638,10 +16638,10 @@
         <v>13</v>
       </c>
       <c r="C61">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>35.62753036437247</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E61">
         <v>247</v>
@@ -16655,10 +16655,10 @@
         <v>18</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E62">
         <v>247</v>
@@ -16669,10 +16669,10 @@
         <v>7</v>
       </c>
       <c r="C63">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="D63">
-        <v>54.25101214574899</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E63">
         <v>247</v>
@@ -16686,10 +16686,10 @@
         <v>15</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="D64">
-        <v>3.643724696356275</v>
+        <v>91.90283400809717</v>
       </c>
       <c r="E64">
         <v>247</v>
@@ -16700,10 +16700,10 @@
         <v>7</v>
       </c>
       <c r="C65">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D65">
-        <v>35.62753036437247</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E65">
         <v>247</v>
@@ -16717,10 +16717,10 @@
         <v>15</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="D66">
-        <v>3.643724696356275</v>
+        <v>91.90283400809717</v>
       </c>
       <c r="E66">
         <v>247</v>
@@ -16731,10 +16731,10 @@
         <v>22</v>
       </c>
       <c r="C67">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="D67">
-        <v>65.9919028340081</v>
+        <v>28.74493927125506</v>
       </c>
       <c r="E67">
         <v>247</v>
@@ -16748,10 +16748,10 @@
         <v>22</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D68">
-        <v>10.12145748987854</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E68">
         <v>247</v>
@@ -16762,10 +16762,10 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>1.619433198380567</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E69">
         <v>247</v>
